--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19536" windowHeight="8208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10656"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsregistrering" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Navn</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Første udarbejdelse af projektplan i Project</t>
+  </si>
+  <si>
+    <t>Opdatering af projektplan</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,6 +444,15 @@
       <c r="A4" s="3">
         <v>42059</v>
       </c>
+      <c r="B4" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Navn</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Opdatering af projektplan</t>
+  </si>
+  <si>
+    <t>System Analyst</t>
+  </si>
+  <si>
+    <t>Workshop 3 om DOM og DD for UC-1</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af iterationsplan for E1</t>
   </si>
 </sst>
 </file>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,6 +463,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>42059</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>42059</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Navn</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Udarbejdelse af iterationsplan for E1</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af OC-2 til UC-1</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,6 +494,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>42060</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Navn</t>
   </si>
@@ -62,7 +62,19 @@
     <t>Udarbejdelse af iterationsplan for E1</t>
   </si>
   <si>
-    <t>Udarbejdelse af OC-2 til UC-1</t>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af SD "beregnTværkraft"</t>
+  </si>
+  <si>
+    <t>Requirements Specifier</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af fully dressed UC-4 samt opdatering af DD</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af OC-2</t>
   </si>
 </sst>
 </file>
@@ -402,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +517,35 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>42061</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>42061</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Navn</t>
   </si>
@@ -71,10 +71,25 @@
     <t>Requirements Specifier</t>
   </si>
   <si>
-    <t>Udarbejdelse af fully dressed UC-4 samt opdatering af DD</t>
-  </si>
-  <si>
     <t>Udarbejdelse af OC-2</t>
+  </si>
+  <si>
+    <t>Kundemøde om UC-4 samt mockup</t>
+  </si>
+  <si>
+    <t>Revidering af SD "beregnTværkraft"</t>
+  </si>
+  <si>
+    <t>Revidering af OC-2 og DD</t>
+  </si>
+  <si>
+    <t>Implementer</t>
+  </si>
+  <si>
+    <t>Implementering af OC-2</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af fully dressed UC-4</t>
   </si>
 </sst>
 </file>
@@ -414,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -545,7 +560,63 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>42062</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>42062</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>42062</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>42062</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Navn</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>Udarbejdelse af fully dressed UC-4</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af OC-3 "beregnNormalkraft"</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af UC-4 SSD</t>
+  </si>
+  <si>
+    <t>Code cleanup i frame + BelastningImpl fix</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af OC-5 "beregnForskydningsspænding"</t>
+  </si>
+  <si>
+    <t>Revideret DD, opdateret til UC-4</t>
   </si>
 </sst>
 </file>
@@ -429,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,6 +634,76 @@
         <v>21</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>42065</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>42065</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>42065</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>42065</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>42065</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Karsten).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Navn</t>
   </si>
@@ -105,6 +105,39 @@
   </si>
   <si>
     <t>Revideret DD, opdateret til UC-4</t>
+  </si>
+  <si>
+    <t>Sygdom</t>
+  </si>
+  <si>
+    <t>Forhindret</t>
+  </si>
+  <si>
+    <t>Test Manager</t>
+  </si>
+  <si>
+    <t>Udførelse og bearbejdning af brugertests af release v0.2</t>
+  </si>
+  <si>
+    <t>Any Role</t>
+  </si>
+  <si>
+    <t>Research og test af afvikling i Java 7</t>
+  </si>
+  <si>
+    <t>PTEController fix-up</t>
+  </si>
+  <si>
+    <t>GUI impl support</t>
+  </si>
+  <si>
+    <t>Implementeret Sikkerhedsfaktor</t>
+  </si>
+  <si>
+    <t>Implementeret Visualizer</t>
+  </si>
+  <si>
+    <t>Visualizer research + impl</t>
   </si>
 </sst>
 </file>
@@ -444,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,6 +737,144 @@
         <v>26</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>42066</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>42067</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>42068</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>42069</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>42072</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>42073</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>42073</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>42074</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>42074</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>42075</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>42075</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>42075</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
